--- a/runtime/templates/db.xlsx
+++ b/runtime/templates/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frant\PycharmProjects\PFtoXLSX\runtime\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E6244F-91D4-42C9-BD0B-AAF88D823600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA7B05-8D1F-4A84-A288-1250BD784D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1065" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="963">
   <si>
     <t>cnpj</t>
   </si>
@@ -2903,13 +2903,19 @@
   </si>
   <si>
     <t>pregao</t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
+    <t>PETROLEO BRASILEIRO PETROBRAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3040,6 +3046,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3386,8 +3400,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3743,13 +3759,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C559"/>
+  <dimension ref="A1:D560"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="H409" sqref="H409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3769,7 +3789,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>42771949000135</v>
       </c>
     </row>
@@ -3780,7 +3800,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>28195667000106</v>
       </c>
     </row>
@@ -3791,7 +3811,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>7526557000100</v>
       </c>
     </row>
@@ -3802,7 +3822,7 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>12528708000107</v>
       </c>
     </row>
@@ -3813,7 +3833,7 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>37663076000107</v>
       </c>
     </row>
@@ -3824,7 +3844,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>194724000113</v>
       </c>
     </row>
@@ -3835,7 +3855,7 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>10338320000100</v>
       </c>
     </row>
@@ -3846,7 +3866,7 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>7628528000159</v>
       </c>
     </row>
@@ -3857,7 +3877,7 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>21240146000184</v>
       </c>
     </row>
@@ -3868,7 +3888,7 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>62002886000160</v>
       </c>
     </row>
@@ -3879,7 +3899,7 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>62002886000160</v>
       </c>
     </row>
@@ -3890,7 +3910,7 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>62002886000160</v>
       </c>
     </row>
@@ -3901,7 +3921,7 @@
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>20247322000147</v>
       </c>
     </row>
@@ -3910,9 +3930,9 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
         <v>61079117000105</v>
       </c>
     </row>
@@ -3923,7 +3943,7 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>61079117000105</v>
       </c>
     </row>
@@ -3934,7 +3954,7 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>60537263000166</v>
       </c>
     </row>
@@ -3945,7 +3965,7 @@
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>5878397000132</v>
       </c>
     </row>
@@ -3956,7 +3976,7 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>8364948000138</v>
       </c>
     </row>
@@ -3967,7 +3987,7 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>8364948000138</v>
       </c>
     </row>
@@ -3978,7 +3998,7 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>8364948000138</v>
       </c>
     </row>
@@ -3989,7 +4009,7 @@
       <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>61189288000189</v>
       </c>
     </row>
@@ -4000,7 +4020,7 @@
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>12648266000124</v>
       </c>
     </row>
@@ -4011,7 +4031,7 @@
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>776574000156</v>
       </c>
     </row>
@@ -4022,7 +4042,7 @@
       <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>9288252000132</v>
       </c>
     </row>
@@ -4033,7 +4053,7 @@
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>11721921000160</v>
       </c>
     </row>
@@ -4044,7 +4064,7 @@
       <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>61156931000178</v>
       </c>
     </row>
@@ -4055,7 +4075,7 @@
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>61156931000178</v>
       </c>
     </row>
@@ -4066,7 +4086,7 @@
       <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>242184000104</v>
       </c>
     </row>
@@ -4077,7 +4097,7 @@
       <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>16590234000176</v>
       </c>
     </row>
@@ -4088,7 +4108,7 @@
       <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>6057223000171</v>
       </c>
     </row>
@@ -4099,7 +4119,7 @@
       <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>4032433000180</v>
       </c>
     </row>
@@ -4110,7 +4130,7 @@
       <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>359742000108</v>
       </c>
     </row>
@@ -4121,7 +4141,7 @@
       <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>7857093000114</v>
       </c>
     </row>
@@ -4132,7 +4152,7 @@
       <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>28594234000123</v>
       </c>
     </row>
@@ -4143,7 +4163,7 @@
       <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>16811931000100</v>
       </c>
     </row>
@@ -4154,7 +4174,7 @@
       <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>61351532000168</v>
       </c>
     </row>
@@ -4165,7 +4185,7 @@
       <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>61351532000168</v>
       </c>
     </row>
@@ -4176,7 +4196,7 @@
       <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>9305994000129</v>
       </c>
     </row>
@@ -4187,7 +4207,7 @@
       <c r="B40" t="s">
         <v>71</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>9346601000125</v>
       </c>
     </row>
@@ -4198,7 +4218,7 @@
       <c r="B41" t="s">
         <v>73</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>45987245000192</v>
       </c>
     </row>
@@ -4209,7 +4229,7 @@
       <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>61374161000130</v>
       </c>
     </row>
@@ -4220,7 +4240,7 @@
       <c r="B43" t="s">
         <v>75</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>61374161000130</v>
       </c>
     </row>
@@ -4231,7 +4251,7 @@
       <c r="B44" t="s">
         <v>78</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>95426862000197</v>
       </c>
     </row>
@@ -4242,7 +4262,7 @@
       <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>95426862000197</v>
       </c>
     </row>
@@ -4253,7 +4273,7 @@
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>4902979000144</v>
       </c>
     </row>
@@ -4264,7 +4284,7 @@
       <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>191</v>
       </c>
     </row>
@@ -4275,7 +4295,7 @@
       <c r="B48" t="s">
         <v>85</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>60746948000112</v>
       </c>
     </row>
@@ -4286,7 +4306,7 @@
       <c r="B49" t="s">
         <v>85</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>60746948000112</v>
       </c>
     </row>
@@ -4297,7 +4317,7 @@
       <c r="B50" t="s">
         <v>88</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>1107327000120</v>
       </c>
     </row>
@@ -4308,7 +4328,7 @@
       <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>17344597000194</v>
       </c>
     </row>
@@ -4319,7 +4339,7 @@
       <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>60851615000153</v>
       </c>
     </row>
@@ -4330,7 +4350,7 @@
       <c r="B53" t="s">
         <v>92</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>60851615000153</v>
       </c>
     </row>
@@ -4341,7 +4361,7 @@
       <c r="B54" t="s">
         <v>95</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>67620377000114</v>
       </c>
     </row>
@@ -4352,7 +4372,7 @@
       <c r="B55" t="s">
         <v>97</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>28127603000178</v>
       </c>
     </row>
@@ -4363,7 +4383,7 @@
       <c r="B56" t="s">
         <v>97</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>28127603000178</v>
       </c>
     </row>
@@ -4374,7 +4394,7 @@
       <c r="B57" t="s">
         <v>100</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>2762124000130</v>
       </c>
     </row>
@@ -4385,7 +4405,7 @@
       <c r="B58" t="s">
         <v>102</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>13009717000146</v>
       </c>
     </row>
@@ -4396,7 +4416,7 @@
       <c r="B59" t="s">
         <v>102</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>13009717000146</v>
       </c>
     </row>
@@ -4407,7 +4427,7 @@
       <c r="B60" t="s">
         <v>105</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>4752991000110</v>
       </c>
     </row>
@@ -4418,7 +4438,7 @@
       <c r="B61" t="s">
         <v>107</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>58430828000160</v>
       </c>
     </row>
@@ -4429,7 +4449,7 @@
       <c r="B62" t="s">
         <v>109</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>17184037000110</v>
       </c>
     </row>
@@ -4440,7 +4460,7 @@
       <c r="B63" t="s">
         <v>109</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>17184037000110</v>
       </c>
     </row>
@@ -4451,7 +4471,7 @@
       <c r="B64" t="s">
         <v>112</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>61186680000174</v>
       </c>
     </row>
@@ -4462,7 +4482,7 @@
       <c r="B65" t="s">
         <v>114</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>34169557000172</v>
       </c>
     </row>
@@ -4473,7 +4493,7 @@
       <c r="B66" t="s">
         <v>114</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>34169557000172</v>
       </c>
     </row>
@@ -4484,7 +4504,7 @@
       <c r="B67" t="s">
         <v>117</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>56992423000190</v>
       </c>
     </row>
@@ -4495,7 +4515,7 @@
       <c r="B68" t="s">
         <v>119</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>9042817000105</v>
       </c>
     </row>
@@ -4506,7 +4526,7 @@
       <c r="B69" t="s">
         <v>121</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>7237373000120</v>
       </c>
     </row>
@@ -4517,7 +4537,7 @@
       <c r="B70" t="s">
         <v>123</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>11725176000127</v>
       </c>
     </row>
@@ -4528,7 +4548,7 @@
       <c r="B71" t="s">
         <v>125</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>50564053000103</v>
       </c>
     </row>
@@ -4539,7 +4559,7 @@
       <c r="B72" t="s">
         <v>125</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>50564053000103</v>
       </c>
     </row>
@@ -4550,7 +4570,7 @@
       <c r="B73" t="s">
         <v>128</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>30306294000145</v>
       </c>
     </row>
@@ -4561,7 +4581,7 @@
       <c r="B74" t="s">
         <v>128</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>30306294000145</v>
       </c>
     </row>
@@ -4572,7 +4592,7 @@
       <c r="B75" t="s">
         <v>128</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>30306294000145</v>
       </c>
     </row>
@@ -4583,7 +4603,7 @@
       <c r="B76" t="s">
         <v>132</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>59285411000113</v>
       </c>
     </row>
@@ -4594,7 +4614,7 @@
       <c r="B77" t="s">
         <v>132</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>59285411000113</v>
       </c>
     </row>
@@ -4605,7 +4625,7 @@
       <c r="B78" t="s">
         <v>135</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>4913711000108</v>
       </c>
     </row>
@@ -4616,7 +4636,7 @@
       <c r="B79" t="s">
         <v>137</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>3847461000192</v>
       </c>
     </row>
@@ -4627,7 +4647,7 @@
       <c r="B80" t="s">
         <v>137</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>3847461000192</v>
       </c>
     </row>
@@ -4638,7 +4658,7 @@
       <c r="B81" t="s">
         <v>140</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>10739356000103</v>
       </c>
     </row>
@@ -4649,7 +4669,7 @@
       <c r="B82" t="s">
         <v>142</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>1838723000127</v>
       </c>
     </row>
@@ -4660,7 +4680,7 @@
       <c r="B83" t="s">
         <v>144</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>17193806000146</v>
       </c>
     </row>
@@ -4671,7 +4691,7 @@
       <c r="B84" t="s">
         <v>144</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>17193806000146</v>
       </c>
     </row>
@@ -4682,7 +4702,7 @@
       <c r="B85" t="s">
         <v>144</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>17193806000146</v>
       </c>
     </row>
@@ -4693,7 +4713,7 @@
       <c r="B86" t="s">
         <v>144</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>17193806000146</v>
       </c>
     </row>
@@ -4704,7 +4724,7 @@
       <c r="B87" t="s">
         <v>144</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>17193806000146</v>
       </c>
     </row>
@@ -4715,7 +4735,7 @@
       <c r="B88" t="s">
         <v>144</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>17193806000146</v>
       </c>
     </row>
@@ -4726,7 +4746,7 @@
       <c r="B89" t="s">
         <v>144</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>17193806000146</v>
       </c>
     </row>
@@ -4737,7 +4757,7 @@
       <c r="B90" t="s">
         <v>152</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>19796586000170</v>
       </c>
     </row>
@@ -4748,7 +4768,7 @@
       <c r="B91" t="s">
         <v>154</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>60770336000165</v>
       </c>
     </row>
@@ -4759,7 +4779,7 @@
       <c r="B92" t="s">
         <v>154</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>60770336000165</v>
       </c>
     </row>
@@ -4770,7 +4790,7 @@
       <c r="B93" t="s">
         <v>157</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>42150391000170</v>
       </c>
     </row>
@@ -4781,7 +4801,7 @@
       <c r="B94" t="s">
         <v>157</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>42150391000170</v>
       </c>
     </row>
@@ -4792,7 +4812,7 @@
       <c r="B95" t="s">
         <v>157</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>42150391000170</v>
       </c>
     </row>
@@ -4803,7 +4823,7 @@
       <c r="B96" t="s">
         <v>161</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>6977751000149</v>
       </c>
     </row>
@@ -4814,7 +4834,7 @@
       <c r="B97" t="s">
         <v>163</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>36542025000164</v>
       </c>
     </row>
@@ -4825,7 +4845,7 @@
       <c r="B98" t="s">
         <v>165</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>92702067000196</v>
       </c>
     </row>
@@ -4836,7 +4856,7 @@
       <c r="B99" t="s">
         <v>165</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>92702067000196</v>
       </c>
     </row>
@@ -4847,7 +4867,7 @@
       <c r="B100" t="s">
         <v>165</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>92702067000196</v>
       </c>
     </row>
@@ -4858,7 +4878,7 @@
       <c r="B101" t="s">
         <v>169</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>208000100</v>
       </c>
     </row>
@@ -4869,7 +4889,7 @@
       <c r="B102" t="s">
         <v>169</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>208000100</v>
       </c>
     </row>
@@ -4880,7 +4900,7 @@
       <c r="B103" t="s">
         <v>172</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>4030182000102</v>
       </c>
     </row>
@@ -4891,7 +4911,7 @@
       <c r="B104" t="s">
         <v>174</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>61022042000118</v>
       </c>
     </row>
@@ -4902,7 +4922,7 @@
       <c r="B105" t="s">
         <v>176</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>61088894000108</v>
       </c>
     </row>
@@ -4913,7 +4933,7 @@
       <c r="B106" t="s">
         <v>178</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>64904295000103</v>
       </c>
     </row>
@@ -4924,7 +4944,7 @@
       <c r="B107" t="s">
         <v>180</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>14110585000107</v>
       </c>
     </row>
@@ -4935,7 +4955,7 @@
       <c r="B108" t="s">
         <v>182</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>82508433000117</v>
       </c>
     </row>
@@ -4946,7 +4966,7 @@
       <c r="B109" t="s">
         <v>182</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>82508433000117</v>
       </c>
     </row>
@@ -4957,7 +4977,7 @@
       <c r="B110" t="s">
         <v>185</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>19526748000150</v>
       </c>
     </row>
@@ -4968,7 +4988,7 @@
       <c r="B111" t="s">
         <v>185</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>19526748000150</v>
       </c>
     </row>
@@ -4979,7 +4999,7 @@
       <c r="B112" t="s">
         <v>188</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>61409892000173</v>
       </c>
     </row>
@@ -4990,7 +5010,7 @@
       <c r="B113" t="s">
         <v>190</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>33050071000158</v>
       </c>
     </row>
@@ -5001,7 +5021,7 @@
       <c r="B114" t="s">
         <v>192</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>2846056000197</v>
       </c>
     </row>
@@ -5012,7 +5032,7 @@
       <c r="B115" t="s">
         <v>194</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>45242914000105</v>
       </c>
     </row>
@@ -5023,7 +5043,7 @@
       <c r="B116" t="s">
         <v>196</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>70698000111</v>
       </c>
     </row>
@@ -5034,7 +5054,7 @@
       <c r="B117" t="s">
         <v>196</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>70698000111</v>
       </c>
     </row>
@@ -5045,7 +5065,7 @@
       <c r="B118" t="s">
         <v>196</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>70698000111</v>
       </c>
     </row>
@@ -5056,7 +5076,7 @@
       <c r="B119" t="s">
         <v>200</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>17245234000100</v>
       </c>
     </row>
@@ -5067,7 +5087,7 @@
       <c r="B120" t="s">
         <v>200</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>17245234000100</v>
       </c>
     </row>
@@ -5078,7 +5098,7 @@
       <c r="B121" t="s">
         <v>203</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>15139629000194</v>
       </c>
     </row>
@@ -5089,7 +5109,7 @@
       <c r="B122" t="s">
         <v>203</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>15139629000194</v>
       </c>
     </row>
@@ -5100,7 +5120,7 @@
       <c r="B123" t="s">
         <v>203</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>15139629000194</v>
       </c>
     </row>
@@ -5111,7 +5131,7 @@
       <c r="B124" t="s">
         <v>207</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>8467115000100</v>
       </c>
     </row>
@@ -5122,7 +5142,7 @@
       <c r="B125" t="s">
         <v>207</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>8467115000100</v>
       </c>
     </row>
@@ -5133,7 +5153,7 @@
       <c r="B126" t="s">
         <v>210</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>33938119000169</v>
       </c>
     </row>
@@ -5144,7 +5164,7 @@
       <c r="B127" t="s">
         <v>212</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>61856571000117</v>
       </c>
     </row>
@@ -5155,7 +5175,7 @@
       <c r="B128" t="s">
         <v>212</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>61856571000117</v>
       </c>
     </row>
@@ -5166,7 +5186,7 @@
       <c r="B129" t="s">
         <v>215</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>92012467000170</v>
       </c>
     </row>
@@ -5177,7 +5197,7 @@
       <c r="B130" t="s">
         <v>215</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>92012467000170</v>
       </c>
     </row>
@@ -5188,7 +5208,7 @@
       <c r="B131" t="s">
         <v>218</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>1027058000191</v>
       </c>
     </row>
@@ -5199,7 +5219,7 @@
       <c r="B132" t="s">
         <v>220</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>3802115000198</v>
       </c>
     </row>
@@ -5210,7 +5230,7 @@
       <c r="B133" t="s">
         <v>222</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>83878892000155</v>
       </c>
     </row>
@@ -5221,7 +5241,7 @@
       <c r="B134" t="s">
         <v>222</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>83878892000155</v>
       </c>
     </row>
@@ -5232,7 +5252,7 @@
       <c r="B135" t="s">
         <v>225</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>17155730000164</v>
       </c>
     </row>
@@ -5243,7 +5263,7 @@
       <c r="B136" t="s">
         <v>225</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>17155730000164</v>
       </c>
     </row>
@@ -5254,7 +5274,7 @@
       <c r="B137" t="s">
         <v>228</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>8902291000115</v>
       </c>
     </row>
@@ -5265,7 +5285,7 @@
       <c r="B138" t="s">
         <v>230</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>272185000193</v>
       </c>
     </row>
@@ -5276,7 +5296,7 @@
       <c r="B139" t="s">
         <v>230</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>272185000193</v>
       </c>
     </row>
@@ -5287,7 +5307,7 @@
       <c r="B140" t="s">
         <v>233</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>7437016000105</v>
       </c>
     </row>
@@ -5298,7 +5318,7 @@
       <c r="B141" t="s">
         <v>235</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>7047251000170</v>
       </c>
     </row>
@@ -5309,7 +5329,7 @@
       <c r="B142" t="s">
         <v>235</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>7047251000170</v>
       </c>
     </row>
@@ -5320,7 +5340,7 @@
       <c r="B143" t="s">
         <v>235</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>7047251000170</v>
       </c>
     </row>
@@ -5331,7 +5351,7 @@
       <c r="B144" t="s">
         <v>239</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>2800026000140</v>
       </c>
     </row>
@@ -5342,7 +5362,7 @@
       <c r="B145" t="s">
         <v>241</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>25369840000157</v>
       </c>
     </row>
@@ -5353,7 +5373,7 @@
       <c r="B146" t="s">
         <v>243</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>15101405000193</v>
       </c>
     </row>
@@ -5364,7 +5384,7 @@
       <c r="B147" t="s">
         <v>243</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>15101405000193</v>
       </c>
     </row>
@@ -5375,7 +5395,7 @@
       <c r="B148" t="s">
         <v>246</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>2429144000193</v>
       </c>
     </row>
@@ -5386,7 +5406,7 @@
       <c r="B149" t="s">
         <v>248</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>76483817000120</v>
       </c>
     </row>
@@ -5397,7 +5417,7 @@
       <c r="B150" t="s">
         <v>248</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>76483817000120</v>
       </c>
     </row>
@@ -5408,7 +5428,7 @@
       <c r="B151" t="s">
         <v>248</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>76483817000120</v>
       </c>
     </row>
@@ -5419,7 +5439,7 @@
       <c r="B152" t="s">
         <v>248</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>76483817000120</v>
       </c>
     </row>
@@ -5430,7 +5450,7 @@
       <c r="B153" t="s">
         <v>253</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>7820907000146</v>
       </c>
     </row>
@@ -5441,7 +5461,7 @@
       <c r="B154" t="s">
         <v>255</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>75315333000109</v>
       </c>
     </row>
@@ -5452,7 +5472,7 @@
       <c r="B155" t="s">
         <v>257</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>17167412000113</v>
       </c>
     </row>
@@ -5463,7 +5483,7 @@
       <c r="B156" t="s">
         <v>257</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>17167412000113</v>
       </c>
     </row>
@@ -5474,7 +5494,7 @@
       <c r="B157" t="s">
         <v>260</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>15115504000124</v>
       </c>
     </row>
@@ -5485,7 +5505,7 @@
       <c r="B158" t="s">
         <v>260</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>15115504000124</v>
       </c>
     </row>
@@ -5496,7 +5516,7 @@
       <c r="B159" t="s">
         <v>260</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>15115504000124</v>
       </c>
     </row>
@@ -5507,7 +5527,7 @@
       <c r="B160" t="s">
         <v>264</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>938574000105</v>
       </c>
     </row>
@@ -5518,7 +5538,7 @@
       <c r="B161" t="s">
         <v>264</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>938574000105</v>
       </c>
     </row>
@@ -5529,7 +5549,7 @@
       <c r="B162" t="s">
         <v>267</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>15144017000190</v>
       </c>
     </row>
@@ -5540,7 +5560,7 @@
       <c r="B163" t="s">
         <v>267</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>15144017000190</v>
       </c>
     </row>
@@ -5551,7 +5571,7 @@
       <c r="B164" t="s">
         <v>270</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>50746577000115</v>
       </c>
     </row>
@@ -5562,7 +5582,7 @@
       <c r="B165" t="s">
         <v>272</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>62984091000102</v>
       </c>
     </row>
@@ -5573,7 +5593,7 @@
       <c r="B166" t="s">
         <v>274</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>17281106000103</v>
       </c>
     </row>
@@ -5584,7 +5604,7 @@
       <c r="B167" t="s">
         <v>276</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>33042730000104</v>
       </c>
     </row>
@@ -5595,7 +5615,7 @@
       <c r="B168" t="s">
         <v>278</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>8324196000181</v>
       </c>
     </row>
@@ -5606,7 +5626,7 @@
       <c r="B169" t="s">
         <v>278</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>8324196000181</v>
       </c>
     </row>
@@ -5617,7 +5637,7 @@
       <c r="B170" t="s">
         <v>278</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>8324196000181</v>
       </c>
     </row>
@@ -5628,7 +5648,7 @@
       <c r="B171" t="s">
         <v>282</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>1896779000138</v>
       </c>
     </row>
@@ -5639,7 +5659,7 @@
       <c r="B172" t="s">
         <v>284</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>6981381000113</v>
       </c>
     </row>
@@ -5650,7 +5670,7 @@
       <c r="B173" t="s">
         <v>286</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>82640558000104</v>
       </c>
     </row>
@@ -5661,7 +5681,7 @@
       <c r="B174" t="s">
         <v>286</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>82640558000104</v>
       </c>
     </row>
@@ -5672,7 +5692,7 @@
       <c r="B175" t="s">
         <v>289</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>22677520000176</v>
       </c>
     </row>
@@ -5683,7 +5703,7 @@
       <c r="B176" t="s">
         <v>289</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>22677520000176</v>
       </c>
     </row>
@@ -5694,7 +5714,7 @@
       <c r="B177" t="s">
         <v>292</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>21255567000189</v>
       </c>
     </row>
@@ -5705,7 +5725,7 @@
       <c r="B178" t="s">
         <v>292</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>21255567000189</v>
       </c>
     </row>
@@ -5716,7 +5736,7 @@
       <c r="B179" t="s">
         <v>295</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>8797760000183</v>
       </c>
     </row>
@@ -5727,7 +5747,7 @@
       <c r="B180" t="s">
         <v>297</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>10760260000119</v>
       </c>
     </row>
@@ -5738,7 +5758,7 @@
       <c r="B181" t="s">
         <v>299</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>22543331000100</v>
       </c>
     </row>
@@ -5749,7 +5769,7 @@
       <c r="B182" t="s">
         <v>301</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>73178600000118</v>
       </c>
     </row>
@@ -5760,7 +5780,7 @@
       <c r="B183" t="s">
         <v>303</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>61486650000183</v>
       </c>
     </row>
@@ -5771,7 +5791,7 @@
       <c r="B184" t="s">
         <v>305</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>8170849000115</v>
       </c>
     </row>
@@ -5782,7 +5802,7 @@
       <c r="B185" t="s">
         <v>307</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>2193750000152</v>
       </c>
     </row>
@@ -5793,7 +5813,7 @@
       <c r="B186" t="s">
         <v>307</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>2193750000152</v>
       </c>
     </row>
@@ -5804,7 +5824,7 @@
       <c r="B187" t="s">
         <v>310</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>16614075000100</v>
       </c>
     </row>
@@ -5815,7 +5835,7 @@
       <c r="B188" t="s">
         <v>312</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>91669747000192</v>
       </c>
     </row>
@@ -5826,7 +5846,7 @@
       <c r="B189" t="s">
         <v>314</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>12108897000150</v>
       </c>
     </row>
@@ -5837,7 +5857,7 @@
       <c r="B190" t="s">
         <v>316</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>84683408000103</v>
       </c>
     </row>
@@ -5848,7 +5868,7 @@
       <c r="B191" t="s">
         <v>316</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>84683408000103</v>
       </c>
     </row>
@@ -5859,7 +5879,7 @@
       <c r="B192" t="s">
         <v>319</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>18174270000184</v>
       </c>
     </row>
@@ -5870,7 +5890,7 @@
       <c r="B193" t="s">
         <v>321</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>3303999000136</v>
       </c>
     </row>
@@ -5881,7 +5901,7 @@
       <c r="B194" t="s">
         <v>321</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>3303999000136</v>
       </c>
     </row>
@@ -5892,7 +5912,7 @@
       <c r="B195" t="s">
         <v>324</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>97837181000147</v>
       </c>
     </row>
@@ -5903,7 +5923,7 @@
       <c r="B196" t="s">
         <v>326</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>82643537000134</v>
       </c>
     </row>
@@ -5914,7 +5934,7 @@
       <c r="B197" t="s">
         <v>326</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>82643537000134</v>
       </c>
     </row>
@@ -5925,7 +5945,7 @@
       <c r="B198" t="s">
         <v>329</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>4149454000180</v>
       </c>
     </row>
@@ -5936,7 +5956,7 @@
       <c r="B199" t="s">
         <v>331</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>92715812000131</v>
       </c>
     </row>
@@ -5947,7 +5967,7 @@
       <c r="B200" t="s">
         <v>331</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>92715812000131</v>
       </c>
     </row>
@@ -5958,7 +5978,7 @@
       <c r="B201" t="s">
         <v>334</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>2474103000119</v>
       </c>
     </row>
@@ -5969,7 +5989,7 @@
       <c r="B202" t="s">
         <v>336</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>2328280000197</v>
       </c>
     </row>
@@ -5980,7 +6000,7 @@
       <c r="B203" t="s">
         <v>336</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>2328280000197</v>
       </c>
     </row>
@@ -5991,7 +6011,7 @@
       <c r="B204" t="s">
         <v>339</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>1180000126</v>
       </c>
     </row>
@@ -6002,7 +6022,7 @@
       <c r="B205" t="s">
         <v>339</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>1180000126</v>
       </c>
     </row>
@@ -6013,7 +6033,7 @@
       <c r="B206" t="s">
         <v>339</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>1180000126</v>
       </c>
     </row>
@@ -6024,7 +6044,7 @@
       <c r="B207" t="s">
         <v>343</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>9347516000181</v>
       </c>
     </row>
@@ -6035,7 +6055,7 @@
       <c r="B208" t="s">
         <v>345</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>2302101000142</v>
       </c>
     </row>
@@ -6046,7 +6066,7 @@
       <c r="B209" t="s">
         <v>345</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>2302101000142</v>
       </c>
     </row>
@@ -6057,7 +6077,7 @@
       <c r="B210" t="s">
         <v>348</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>7689002000189</v>
       </c>
     </row>
@@ -6068,7 +6088,7 @@
       <c r="B211" t="s">
         <v>350</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>11669021000110</v>
       </c>
     </row>
@@ -6079,7 +6099,7 @@
       <c r="B212" t="s">
         <v>352</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>3983431000103</v>
       </c>
     </row>
@@ -6090,7 +6110,7 @@
       <c r="B213" t="s">
         <v>354</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>4423567000121</v>
       </c>
     </row>
@@ -6101,7 +6121,7 @@
       <c r="B214" t="s">
         <v>356</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>864214000106</v>
       </c>
     </row>
@@ -6112,7 +6132,7 @@
       <c r="B215" t="s">
         <v>356</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>864214000106</v>
       </c>
     </row>
@@ -6123,7 +6143,7 @@
       <c r="B216" t="s">
         <v>356</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>864214000106</v>
       </c>
     </row>
@@ -6134,7 +6154,7 @@
       <c r="B217" t="s">
         <v>360</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>16922038000151</v>
       </c>
     </row>
@@ -6145,7 +6165,7 @@
       <c r="B218" t="s">
         <v>362</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>3467321000199</v>
       </c>
     </row>
@@ -6156,7 +6176,7 @@
       <c r="B219" t="s">
         <v>362</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>3467321000199</v>
       </c>
     </row>
@@ -6167,7 +6187,7 @@
       <c r="B220" t="s">
         <v>365</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>42331462000131</v>
       </c>
     </row>
@@ -6178,7 +6198,7 @@
       <c r="B221" t="s">
         <v>367</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>6272793000184</v>
       </c>
     </row>
@@ -6189,7 +6209,7 @@
       <c r="B222" t="s">
         <v>367</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>6272793000184</v>
       </c>
     </row>
@@ -6200,7 +6220,7 @@
       <c r="B223" t="s">
         <v>367</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>6272793000184</v>
       </c>
     </row>
@@ -6211,7 +6231,7 @@
       <c r="B224" t="s">
         <v>371</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>4895728000180</v>
       </c>
     </row>
@@ -6222,7 +6242,7 @@
       <c r="B225" t="s">
         <v>371</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>4895728000180</v>
       </c>
     </row>
@@ -6233,7 +6253,7 @@
       <c r="B226" t="s">
         <v>371</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>4895728000180</v>
       </c>
     </row>
@@ -6244,7 +6264,7 @@
       <c r="B227" t="s">
         <v>371</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>4895728000180</v>
       </c>
     </row>
@@ -6255,7 +6275,7 @@
       <c r="B228" t="s">
         <v>376</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>3220438000173</v>
       </c>
     </row>
@@ -6266,7 +6286,7 @@
       <c r="B229" t="s">
         <v>378</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>26659061000159</v>
       </c>
     </row>
@@ -6277,7 +6297,7 @@
       <c r="B230" t="s">
         <v>380</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>61082004000150</v>
       </c>
     </row>
@@ -6288,7 +6308,7 @@
       <c r="B231" t="s">
         <v>380</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>61082004000150</v>
       </c>
     </row>
@@ -6299,7 +6319,7 @@
       <c r="B232" t="s">
         <v>383</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>61092037000181</v>
       </c>
     </row>
@@ -6310,7 +6330,7 @@
       <c r="B233" t="s">
         <v>385</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>56643018000166</v>
       </c>
     </row>
@@ -6321,7 +6341,7 @@
       <c r="B234" t="s">
         <v>385</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>56643018000166</v>
       </c>
     </row>
@@ -6332,7 +6352,7 @@
       <c r="B235" t="s">
         <v>388</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>61190096000192</v>
       </c>
     </row>
@@ -6343,7 +6363,7 @@
       <c r="B236" t="s">
         <v>390</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>43470988000165</v>
       </c>
     </row>
@@ -6354,7 +6374,7 @@
       <c r="B237" t="s">
         <v>392</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>8312229000173</v>
       </c>
     </row>
@@ -6365,7 +6385,7 @@
       <c r="B238" t="s">
         <v>394</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>15141799000103</v>
       </c>
     </row>
@@ -6376,7 +6396,7 @@
       <c r="B239" t="s">
         <v>394</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>15141799000103</v>
       </c>
     </row>
@@ -6387,7 +6407,7 @@
       <c r="B240" t="s">
         <v>397</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>22266175000188</v>
       </c>
     </row>
@@ -6398,7 +6418,7 @@
       <c r="B241" t="s">
         <v>399</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>1548981000179</v>
       </c>
     </row>
@@ -6409,7 +6429,7 @@
       <c r="B242" t="s">
         <v>399</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>1548981000179</v>
       </c>
     </row>
@@ -6420,7 +6440,7 @@
       <c r="B243" t="s">
         <v>402</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>2255187000108</v>
       </c>
     </row>
@@ -6431,7 +6451,7 @@
       <c r="B244" t="s">
         <v>404</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>10851805000100</v>
       </c>
     </row>
@@ -6442,7 +6462,7 @@
       <c r="B245" t="s">
         <v>406</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>60840055000131</v>
       </c>
     </row>
@@ -6453,7 +6473,7 @@
       <c r="B246" t="s">
         <v>408</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>88610126000129</v>
       </c>
     </row>
@@ -6464,7 +6484,7 @@
       <c r="B247" t="s">
         <v>410</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>4821041000108</v>
       </c>
     </row>
@@ -6475,7 +6495,7 @@
       <c r="B248" t="s">
         <v>412</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>24962466000136</v>
       </c>
     </row>
@@ -6486,7 +6506,7 @@
       <c r="B249" t="s">
         <v>412</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>24962466000136</v>
       </c>
     </row>
@@ -6497,7 +6517,7 @@
       <c r="B250" t="s">
         <v>412</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>24962466000136</v>
       </c>
     </row>
@@ -6508,7 +6528,7 @@
       <c r="B251" t="s">
         <v>416</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>86550951000150</v>
       </c>
     </row>
@@ -6519,7 +6539,7 @@
       <c r="B252" t="s">
         <v>418</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>38307135000177</v>
       </c>
     </row>
@@ -6530,7 +6550,7 @@
       <c r="B253" t="s">
         <v>420</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>2998301000181</v>
       </c>
     </row>
@@ -6541,7 +6561,7 @@
       <c r="B254" t="s">
         <v>420</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>2998301000181</v>
       </c>
     </row>
@@ -6552,7 +6572,7 @@
       <c r="B255" t="s">
         <v>423</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>1545826000107</v>
       </c>
     </row>
@@ -6563,7 +6583,7 @@
       <c r="B256" t="s">
         <v>425</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>33611500000119</v>
       </c>
     </row>
@@ -6574,7 +6594,7 @@
       <c r="B257" t="s">
         <v>425</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>33611500000119</v>
       </c>
     </row>
@@ -6585,7 +6605,7 @@
       <c r="B258" t="s">
         <v>428</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>9229201000130</v>
       </c>
     </row>
@@ -6596,7 +6616,7 @@
       <c r="B259" t="s">
         <v>430</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>24990777000109</v>
       </c>
     </row>
@@ -6607,7 +6627,7 @@
       <c r="B260" t="s">
         <v>432</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>92690783000109</v>
       </c>
     </row>
@@ -6618,7 +6638,7 @@
       <c r="B261" t="s">
         <v>432</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>92690783000109</v>
       </c>
     </row>
@@ -6629,7 +6649,7 @@
       <c r="B262" t="s">
         <v>435</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>6164253000187</v>
       </c>
     </row>
@@ -6640,7 +6660,7 @@
       <c r="B263" t="s">
         <v>435</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>6164253000187</v>
       </c>
     </row>
@@ -6651,7 +6671,7 @@
       <c r="B264" t="s">
         <v>438</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>8560444000193</v>
       </c>
     </row>
@@ -6662,7 +6682,7 @@
       <c r="B265" t="s">
         <v>440</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>7857850000150</v>
       </c>
     </row>
@@ -6673,7 +6693,7 @@
       <c r="B266" t="s">
         <v>442</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>18483666000103</v>
       </c>
     </row>
@@ -6684,7 +6704,7 @@
       <c r="B267" t="s">
         <v>444</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>89850341000160</v>
       </c>
     </row>
@@ -6695,7 +6715,7 @@
       <c r="B268" t="s">
         <v>446</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>8764621000153</v>
       </c>
     </row>
@@ -6706,7 +6726,7 @@
       <c r="B269" t="s">
         <v>448</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>8402943000152</v>
       </c>
     </row>
@@ -6717,7 +6737,7 @@
       <c r="B270" t="s">
         <v>450</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>30540991000166</v>
       </c>
     </row>
@@ -6728,7 +6748,7 @@
       <c r="B271" t="s">
         <v>450</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>30540991000166</v>
       </c>
     </row>
@@ -6739,7 +6759,7 @@
       <c r="B272" t="s">
         <v>453</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>5197443000138</v>
       </c>
     </row>
@@ -6750,7 +6770,7 @@
       <c r="B273" t="s">
         <v>455</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>49263189000102</v>
       </c>
     </row>
@@ -6761,7 +6781,7 @@
       <c r="B274" t="s">
         <v>457</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>14785152000151</v>
       </c>
     </row>
@@ -6772,7 +6792,7 @@
       <c r="B275" t="s">
         <v>459</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>12648327000153</v>
       </c>
     </row>
@@ -6783,7 +6803,7 @@
       <c r="B276" t="s">
         <v>461</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>87762563000103</v>
       </c>
     </row>
@@ -6794,7 +6814,7 @@
       <c r="B277" t="s">
         <v>461</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>87762563000103</v>
       </c>
     </row>
@@ -6805,7 +6825,7 @@
       <c r="B278" t="s">
         <v>461</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>87762563000103</v>
       </c>
     </row>
@@ -6816,7 +6836,7 @@
       <c r="B279" t="s">
         <v>465</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>92749225000163</v>
       </c>
     </row>
@@ -6827,7 +6847,7 @@
       <c r="B280" t="s">
         <v>465</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>92749225000163</v>
       </c>
     </row>
@@ -6838,7 +6858,7 @@
       <c r="B281" t="s">
         <v>468</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>40159947000164</v>
       </c>
     </row>
@@ -6849,7 +6869,7 @@
       <c r="B282" t="s">
         <v>470</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>33200049000147</v>
       </c>
     </row>
@@ -6860,7 +6880,7 @@
       <c r="B283" t="s">
         <v>470</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>33200049000147</v>
       </c>
     </row>
@@ -6871,7 +6891,7 @@
       <c r="B284" t="s">
         <v>473</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>2932074000191</v>
       </c>
     </row>
@@ -6882,7 +6902,7 @@
       <c r="B285" t="s">
         <v>475</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>38456921000136</v>
       </c>
     </row>
@@ -6893,7 +6913,7 @@
       <c r="B286" t="s">
         <v>477</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>43185362000107</v>
       </c>
     </row>
@@ -6904,7 +6924,7 @@
       <c r="B287" t="s">
         <v>479</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>8159965000133</v>
       </c>
     </row>
@@ -6915,7 +6935,7 @@
       <c r="B288" t="s">
         <v>481</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>60543816000193</v>
       </c>
     </row>
@@ -6926,7 +6946,7 @@
       <c r="B289" t="s">
         <v>481</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>60543816000193</v>
       </c>
     </row>
@@ -6937,7 +6957,7 @@
       <c r="B290" t="s">
         <v>481</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>60543816000193</v>
       </c>
     </row>
@@ -6948,7 +6968,7 @@
       <c r="B291" t="s">
         <v>485</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>76627504000106</v>
       </c>
     </row>
@@ -6959,7 +6979,7 @@
       <c r="B292" t="s">
         <v>485</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>76627504000106</v>
       </c>
     </row>
@@ -6970,7 +6990,7 @@
       <c r="B293" t="s">
         <v>488</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>9611768000176</v>
       </c>
     </row>
@@ -6981,7 +7001,7 @@
       <c r="B294" t="s">
         <v>490</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>82901000000127</v>
       </c>
     </row>
@@ -6992,7 +7012,7 @@
       <c r="B295" t="s">
         <v>492</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>33376989000191</v>
       </c>
     </row>
@@ -7003,7 +7023,7 @@
       <c r="B296" t="s">
         <v>494</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="1">
         <v>61532644000115</v>
       </c>
     </row>
@@ -7014,7 +7034,7 @@
       <c r="B297" t="s">
         <v>494</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>61532644000115</v>
       </c>
     </row>
@@ -7025,7 +7045,7 @@
       <c r="B298" t="s">
         <v>497</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>60872504000123</v>
       </c>
     </row>
@@ -7036,7 +7056,7 @@
       <c r="B299" t="s">
         <v>497</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="1">
         <v>60872504000123</v>
       </c>
     </row>
@@ -7047,7 +7067,7 @@
       <c r="B300" t="s">
         <v>500</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="1">
         <v>3758318000124</v>
       </c>
     </row>
@@ -7058,7 +7078,7 @@
       <c r="B301" t="s">
         <v>500</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>3758318000124</v>
       </c>
     </row>
@@ -7069,7 +7089,7 @@
       <c r="B302" t="s">
         <v>503</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>2635522000195</v>
       </c>
     </row>
@@ -7080,7 +7100,7 @@
       <c r="B303" t="s">
         <v>505</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>2916265000160</v>
       </c>
     </row>
@@ -7091,7 +7111,7 @@
       <c r="B304" t="s">
         <v>507</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>33035536000100</v>
       </c>
     </row>
@@ -7102,7 +7122,7 @@
       <c r="B305" t="s">
         <v>509</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="1">
         <v>8294224000165</v>
       </c>
     </row>
@@ -7113,7 +7133,7 @@
       <c r="B306" t="s">
         <v>511</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="1">
         <v>87456562000122</v>
       </c>
     </row>
@@ -7124,7 +7144,7 @@
       <c r="B307" t="s">
         <v>511</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="1">
         <v>87456562000122</v>
       </c>
     </row>
@@ -7135,7 +7155,7 @@
       <c r="B308" t="s">
         <v>514</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>52548435000179</v>
       </c>
     </row>
@@ -7146,7 +7166,7 @@
       <c r="B309" t="s">
         <v>516</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="1">
         <v>91983056000169</v>
       </c>
     </row>
@@ -7157,7 +7177,7 @@
       <c r="B310" t="s">
         <v>518</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>9146451000106</v>
       </c>
     </row>
@@ -7168,7 +7188,7 @@
       <c r="B311" t="s">
         <v>520</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="1">
         <v>89637490000145</v>
       </c>
     </row>
@@ -7179,7 +7199,7 @@
       <c r="B312" t="s">
         <v>520</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="1">
         <v>89637490000145</v>
       </c>
     </row>
@@ -7190,7 +7210,7 @@
       <c r="B313" t="s">
         <v>520</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="1">
         <v>89637490000145</v>
       </c>
     </row>
@@ -7201,7 +7221,7 @@
       <c r="B314" t="s">
         <v>524</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="1">
         <v>13270520000166</v>
       </c>
     </row>
@@ -7212,7 +7232,7 @@
       <c r="B315" t="s">
         <v>526</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="1">
         <v>40337136000106</v>
       </c>
     </row>
@@ -7223,7 +7243,7 @@
       <c r="B316" t="s">
         <v>528</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>26462693000128</v>
       </c>
     </row>
@@ -7234,7 +7254,7 @@
       <c r="B317" t="s">
         <v>530</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>60476884000187</v>
       </c>
     </row>
@@ -7245,7 +7265,7 @@
       <c r="B318" t="s">
         <v>532</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>3378521000175</v>
       </c>
     </row>
@@ -7256,7 +7276,7 @@
       <c r="B319" t="s">
         <v>534</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="1">
         <v>1104937000170</v>
       </c>
     </row>
@@ -7267,7 +7287,7 @@
       <c r="B320" t="s">
         <v>536</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>96418264021802</v>
       </c>
     </row>
@@ -7278,7 +7298,7 @@
       <c r="B321" t="s">
         <v>538</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="1">
         <v>16233389000155</v>
       </c>
     </row>
@@ -7289,7 +7309,7 @@
       <c r="B322" t="s">
         <v>538</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>16233389000155</v>
       </c>
     </row>
@@ -7300,7 +7320,7 @@
       <c r="B323" t="s">
         <v>541</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>2357251000153</v>
       </c>
     </row>
@@ -7311,7 +7331,7 @@
       <c r="B324" t="s">
         <v>543</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>9041168000110</v>
       </c>
     </row>
@@ -7322,7 +7342,7 @@
       <c r="B325" t="s">
         <v>545</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>42278291000124</v>
       </c>
     </row>
@@ -7333,7 +7353,7 @@
       <c r="B326" t="s">
         <v>547</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>8078847000109</v>
       </c>
     </row>
@@ -7344,7 +7364,7 @@
       <c r="B327" t="s">
         <v>549</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>92754738000162</v>
       </c>
     </row>
@@ -7355,7 +7375,7 @@
       <c r="B328" t="s">
         <v>551</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="1">
         <v>743065000127</v>
       </c>
     </row>
@@ -7366,7 +7386,7 @@
       <c r="B329" t="s">
         <v>553</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="1">
         <v>5495546000184</v>
       </c>
     </row>
@@ -7377,7 +7397,7 @@
       <c r="B330" t="s">
         <v>555</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>89463822000112</v>
       </c>
     </row>
@@ -7388,7 +7408,7 @@
       <c r="B331" t="s">
         <v>557</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>92660570000126</v>
       </c>
     </row>
@@ -7399,7 +7419,7 @@
       <c r="B332" t="s">
         <v>557</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>92660570000126</v>
       </c>
     </row>
@@ -7410,7 +7430,7 @@
       <c r="B333" t="s">
         <v>560</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>5917486000140</v>
       </c>
     </row>
@@ -7421,7 +7441,7 @@
       <c r="B334" t="s">
         <v>562</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>2351877000152</v>
       </c>
     </row>
@@ -7432,7 +7452,7 @@
       <c r="B335" t="s">
         <v>564</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>93828986000173</v>
       </c>
     </row>
@@ -7443,7 +7463,7 @@
       <c r="B336" t="s">
         <v>564</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>93828986000173</v>
       </c>
     </row>
@@ -7454,7 +7474,7 @@
       <c r="B337" t="s">
         <v>567</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>16676520000159</v>
       </c>
     </row>
@@ -7465,7 +7485,7 @@
       <c r="B338" t="s">
         <v>569</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="1">
         <v>31553627000101</v>
       </c>
     </row>
@@ -7476,7 +7496,7 @@
       <c r="B339" t="s">
         <v>571</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="1">
         <v>7206816000115</v>
       </c>
     </row>
@@ -7487,7 +7507,7 @@
       <c r="B340" t="s">
         <v>573</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>12049631000184</v>
       </c>
     </row>
@@ -7498,7 +7518,7 @@
       <c r="B341" t="s">
         <v>575</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>17314329000120</v>
       </c>
     </row>
@@ -7509,7 +7529,7 @@
       <c r="B342" t="s">
         <v>577</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>42500384000151</v>
       </c>
     </row>
@@ -7520,7 +7540,7 @@
       <c r="B343" t="s">
         <v>579</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>12181987000177</v>
       </c>
     </row>
@@ -7531,7 +7551,7 @@
       <c r="B344" t="s">
         <v>581</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>33040601000187</v>
       </c>
     </row>
@@ -7542,7 +7562,7 @@
       <c r="B345" t="s">
         <v>581</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>33040601000187</v>
       </c>
     </row>
@@ -7553,7 +7573,7 @@
       <c r="B346" t="s">
         <v>584</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>61065298000102</v>
       </c>
     </row>
@@ -7564,7 +7584,7 @@
       <c r="B347" t="s">
         <v>584</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="1">
         <v>61065298000102</v>
       </c>
     </row>
@@ -7575,7 +7595,7 @@
       <c r="B348" t="s">
         <v>587</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>47960950000121</v>
       </c>
     </row>
@@ -7586,7 +7606,7 @@
       <c r="B349" t="s">
         <v>589</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>27093558000115</v>
       </c>
     </row>
@@ -7597,7 +7617,7 @@
       <c r="B350" t="s">
         <v>591</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>59717553000102</v>
       </c>
     </row>
@@ -7608,7 +7628,7 @@
       <c r="B351" t="s">
         <v>593</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>17161241000115</v>
       </c>
     </row>
@@ -7619,7 +7639,7 @@
       <c r="B352" t="s">
         <v>593</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>17161241000115</v>
       </c>
     </row>
@@ -7630,7 +7650,7 @@
       <c r="B353" t="s">
         <v>596</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="1">
         <v>88610191000154</v>
       </c>
     </row>
@@ -7641,7 +7661,7 @@
       <c r="B354" t="s">
         <v>598</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>90076886000140</v>
       </c>
     </row>
@@ -7652,7 +7672,7 @@
       <c r="B355" t="s">
         <v>600</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>2664042000152</v>
       </c>
     </row>
@@ -7663,7 +7683,7 @@
       <c r="B356" t="s">
         <v>602</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>33102476000192</v>
       </c>
     </row>
@@ -7674,7 +7694,7 @@
       <c r="B357" t="s">
         <v>604</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>30723886000162</v>
       </c>
     </row>
@@ -7685,7 +7705,7 @@
       <c r="B358" t="s">
         <v>606</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>21314559000166</v>
       </c>
     </row>
@@ -7696,7 +7716,7 @@
       <c r="B359" t="s">
         <v>608</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>3853896000140</v>
       </c>
     </row>
@@ -7707,7 +7727,7 @@
       <c r="B360" t="s">
         <v>610</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>1417222000177</v>
       </c>
     </row>
@@ -7718,7 +7738,7 @@
       <c r="B361" t="s">
         <v>610</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>1417222000177</v>
       </c>
     </row>
@@ -7729,7 +7749,7 @@
       <c r="B362" t="s">
         <v>610</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>1417222000177</v>
       </c>
     </row>
@@ -7740,7 +7760,7 @@
       <c r="B363" t="s">
         <v>614</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>8343492000120</v>
       </c>
     </row>
@@ -7751,7 +7771,7 @@
       <c r="B364" t="s">
         <v>616</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="1">
         <v>60730348000166</v>
       </c>
     </row>
@@ -7762,7 +7782,7 @@
       <c r="B365" t="s">
         <v>616</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>60730348000166</v>
       </c>
     </row>
@@ -7773,7 +7793,7 @@
       <c r="B366" t="s">
         <v>619</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>8795211000170</v>
       </c>
     </row>
@@ -7784,7 +7804,7 @@
       <c r="B367" t="s">
         <v>621</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>7882930000165</v>
       </c>
     </row>
@@ -7795,7 +7815,7 @@
       <c r="B368" t="s">
         <v>623</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>86375425000109</v>
       </c>
     </row>
@@ -7806,7 +7826,7 @@
       <c r="B369" t="s">
         <v>623</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>86375425000109</v>
       </c>
     </row>
@@ -7817,7 +7837,7 @@
       <c r="B370" t="s">
         <v>626</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>7816890000153</v>
       </c>
     </row>
@@ -7828,7 +7848,7 @@
       <c r="B371" t="s">
         <v>628</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>84683671000194</v>
       </c>
     </row>
@@ -7839,7 +7859,7 @@
       <c r="B372" t="s">
         <v>628</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>84683671000194</v>
       </c>
     </row>
@@ -7850,7 +7870,7 @@
       <c r="B373" t="s">
         <v>631</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>61156113000175</v>
       </c>
     </row>
@@ -7861,7 +7881,7 @@
       <c r="B374" t="s">
         <v>633</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>60651809000105</v>
       </c>
     </row>
@@ -7872,7 +7892,7 @@
       <c r="B375" t="s">
         <v>633</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>60651809000105</v>
       </c>
     </row>
@@ -7883,7 +7903,7 @@
       <c r="B376" t="s">
         <v>633</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="1">
         <v>60651809000105</v>
       </c>
     </row>
@@ -7894,7 +7914,7 @@
       <c r="B377" t="s">
         <v>637</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="1">
         <v>1083200000118</v>
       </c>
     </row>
@@ -7905,7 +7925,7 @@
       <c r="B378" t="s">
         <v>639</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>8613550000198</v>
       </c>
     </row>
@@ -7916,7 +7936,7 @@
       <c r="B379" t="s">
         <v>641</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="1">
         <v>10139870000108</v>
       </c>
     </row>
@@ -7927,7 +7947,7 @@
       <c r="B380" t="s">
         <v>643</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="1">
         <v>14127813000151</v>
       </c>
     </row>
@@ -7938,7 +7958,7 @@
       <c r="B381" t="s">
         <v>645</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>60884319000159</v>
       </c>
     </row>
@@ -7949,7 +7969,7 @@
       <c r="B382" t="s">
         <v>647</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>29950060000157</v>
       </c>
     </row>
@@ -7960,7 +7980,7 @@
       <c r="B383" t="s">
         <v>649</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="1">
         <v>32785497000197</v>
       </c>
     </row>
@@ -7971,7 +7991,7 @@
       <c r="B384" t="s">
         <v>651</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="1">
         <v>24410913000144</v>
       </c>
     </row>
@@ -7982,7 +8002,7 @@
       <c r="B385" t="s">
         <v>653</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="1">
         <v>51128999000190</v>
       </c>
     </row>
@@ -7993,7 +8013,7 @@
       <c r="B386" t="s">
         <v>655</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="1">
         <v>97191902000194</v>
       </c>
     </row>
@@ -8004,7 +8024,7 @@
       <c r="B387" t="s">
         <v>655</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="1">
         <v>97191902000194</v>
       </c>
     </row>
@@ -8015,7 +8035,7 @@
       <c r="B388" t="s">
         <v>658</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="1">
         <v>58119199000151</v>
       </c>
     </row>
@@ -8026,7 +8046,7 @@
       <c r="B389" t="s">
         <v>660</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="1">
         <v>20258278000170</v>
       </c>
     </row>
@@ -8037,7 +8057,7 @@
       <c r="B390" t="s">
         <v>662</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="1">
         <v>76535764000143</v>
       </c>
     </row>
@@ -8048,7 +8068,7 @@
       <c r="B391" t="s">
         <v>662</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="1">
         <v>76535764000143</v>
       </c>
     </row>
@@ -8059,7 +8079,7 @@
       <c r="B392" t="s">
         <v>665</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="1">
         <v>12104241000402</v>
       </c>
     </row>
@@ -8070,7 +8090,7 @@
       <c r="B393" t="s">
         <v>667</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="1">
         <v>9114805000130</v>
       </c>
     </row>
@@ -8081,7 +8101,7 @@
       <c r="B394" t="s">
         <v>669</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="1">
         <v>2796775000140</v>
       </c>
     </row>
@@ -8092,7 +8112,7 @@
       <c r="B395" t="s">
         <v>671</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="1">
         <v>2062747000108</v>
       </c>
     </row>
@@ -8103,7 +8123,7 @@
       <c r="B396" t="s">
         <v>673</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="1">
         <v>1957772000189</v>
       </c>
     </row>
@@ -8114,7 +8134,7 @@
       <c r="B397" t="s">
         <v>675</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="1">
         <v>11421994000136</v>
       </c>
     </row>
@@ -8125,7 +8145,7 @@
       <c r="B398" t="s">
         <v>677</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="1">
         <v>9112685000132</v>
       </c>
     </row>
@@ -8136,7 +8156,7 @@
       <c r="B399" t="s">
         <v>679</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="1">
         <v>19378769000176</v>
       </c>
     </row>
@@ -8147,1756 +8167,1768 @@
       <c r="B400" t="s">
         <v>681</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="1">
         <v>21389501000181</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>682</v>
       </c>
       <c r="B401" t="s">
         <v>681</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="1">
         <v>21389501000181</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>683</v>
       </c>
       <c r="B402" t="s">
         <v>684</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="1">
         <v>92693019000189</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>685</v>
       </c>
       <c r="B403" t="s">
         <v>684</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="1">
         <v>92693019000189</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>686</v>
       </c>
       <c r="B404" t="s">
         <v>687</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="1">
         <v>47508411000156</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>688</v>
       </c>
       <c r="B405" t="s">
         <v>689</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="1">
         <v>2950811000189</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>690</v>
       </c>
       <c r="B406" t="s">
         <v>691</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="1">
         <v>2365069000144</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>692</v>
       </c>
       <c r="B407" t="s">
         <v>693</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="1">
         <v>1938783000111</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>694</v>
       </c>
       <c r="B408" t="s">
         <v>693</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="1">
         <v>1938783000111</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>695</v>
       </c>
       <c r="B409" t="s">
         <v>696</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="1">
         <v>33000167000101</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>961</v>
+      </c>
+      <c r="B410" t="s">
+        <v>962</v>
+      </c>
+      <c r="C410" s="1">
+        <v>33000167000101</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
         <v>697</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B411" t="s">
         <v>696</v>
       </c>
-      <c r="C410">
+      <c r="C411" s="1">
         <v>33000167000101</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
         <v>698</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B412" t="s">
         <v>699</v>
       </c>
-      <c r="C411">
+      <c r="C412" s="1">
         <v>18328118000109</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
         <v>700</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B413" t="s">
         <v>701</v>
       </c>
-      <c r="C412">
+      <c r="C413" s="1">
         <v>45453214000151</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>702</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B414" t="s">
         <v>703</v>
       </c>
-      <c r="C413">
+      <c r="C414" s="1">
         <v>6626253000151</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
         <v>704</v>
-      </c>
-      <c r="B414" t="s">
-        <v>705</v>
-      </c>
-      <c r="C414">
-        <v>62144175000120</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>706</v>
       </c>
       <c r="B415" t="s">
         <v>705</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="1">
         <v>62144175000120</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B416" t="s">
-        <v>708</v>
-      </c>
-      <c r="C416">
-        <v>51928174000150</v>
+        <v>705</v>
+      </c>
+      <c r="C416" s="1">
+        <v>62144175000120</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B417" t="s">
-        <v>710</v>
-      </c>
-      <c r="C417">
-        <v>24230275000180</v>
+        <v>708</v>
+      </c>
+      <c r="C417" s="1">
+        <v>51928174000150</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B418" t="s">
-        <v>712</v>
-      </c>
-      <c r="C418">
-        <v>60398369000126</v>
+        <v>710</v>
+      </c>
+      <c r="C418" s="1">
+        <v>24230275000180</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B419" t="s">
-        <v>714</v>
-      </c>
-      <c r="C419">
-        <v>92665611000177</v>
+        <v>712</v>
+      </c>
+      <c r="C419" s="1">
+        <v>60398369000126</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B420" t="s">
-        <v>716</v>
-      </c>
-      <c r="C420">
-        <v>88611835000129</v>
+        <v>714</v>
+      </c>
+      <c r="C420" s="1">
+        <v>92665611000177</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B421" t="s">
         <v>716</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="1">
         <v>88611835000129</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B422" t="s">
-        <v>719</v>
-      </c>
-      <c r="C422">
-        <v>33130691000105</v>
+        <v>716</v>
+      </c>
+      <c r="C422" s="1">
+        <v>88611835000129</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B423" t="s">
-        <v>721</v>
-      </c>
-      <c r="C423">
-        <v>81243735000148</v>
+        <v>719</v>
+      </c>
+      <c r="C423" s="1">
+        <v>33130691000105</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B424" t="s">
-        <v>723</v>
-      </c>
-      <c r="C424">
-        <v>59789545000171</v>
+        <v>721</v>
+      </c>
+      <c r="C424" s="1">
+        <v>81243735000148</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B425" t="s">
-        <v>725</v>
-      </c>
-      <c r="C425">
-        <v>15073274000188</v>
+        <v>723</v>
+      </c>
+      <c r="C425" s="1">
+        <v>59789545000171</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B426" t="s">
-        <v>727</v>
-      </c>
-      <c r="C426">
-        <v>10629105000168</v>
+        <v>725</v>
+      </c>
+      <c r="C426" s="1">
+        <v>15073274000188</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B427" t="s">
-        <v>729</v>
-      </c>
-      <c r="C427">
-        <v>18593815000197</v>
+        <v>727</v>
+      </c>
+      <c r="C427" s="1">
+        <v>10629105000168</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B428" t="s">
-        <v>731</v>
-      </c>
-      <c r="C428">
-        <v>2992449000109</v>
+        <v>729</v>
+      </c>
+      <c r="C428" s="1">
+        <v>18593815000197</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B429" t="s">
-        <v>733</v>
-      </c>
-      <c r="C429">
-        <v>2149205000169</v>
+        <v>731</v>
+      </c>
+      <c r="C429" s="1">
+        <v>2992449000109</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B430" t="s">
-        <v>735</v>
-      </c>
-      <c r="C430">
-        <v>83475913000191</v>
+        <v>733</v>
+      </c>
+      <c r="C430" s="1">
+        <v>2149205000169</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B431" t="s">
-        <v>737</v>
-      </c>
-      <c r="C431">
-        <v>8574411000100</v>
+        <v>735</v>
+      </c>
+      <c r="C431" s="1">
+        <v>83475913000191</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B432" t="s">
         <v>737</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="1">
         <v>8574411000100</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B433" t="s">
-        <v>740</v>
-      </c>
-      <c r="C433">
-        <v>88613658000110</v>
+        <v>737</v>
+      </c>
+      <c r="C433" s="1">
+        <v>8574411000100</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B434" t="s">
         <v>740</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="1">
         <v>88613658000110</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B435" t="s">
-        <v>743</v>
-      </c>
-      <c r="C435">
-        <v>11992680000193</v>
+        <v>740</v>
+      </c>
+      <c r="C435" s="1">
+        <v>88613658000110</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B436" t="s">
-        <v>745</v>
-      </c>
-      <c r="C436">
-        <v>35791391000194</v>
+        <v>743</v>
+      </c>
+      <c r="C436" s="1">
+        <v>11992680000193</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B437" t="s">
-        <v>747</v>
-      </c>
-      <c r="C437">
-        <v>1851771000155</v>
+        <v>745</v>
+      </c>
+      <c r="C437" s="1">
+        <v>35791391000194</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B438" t="s">
-        <v>749</v>
-      </c>
-      <c r="C438">
-        <v>61585865000151</v>
+        <v>747</v>
+      </c>
+      <c r="C438" s="1">
+        <v>1851771000155</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B439" t="s">
-        <v>751</v>
-      </c>
-      <c r="C439">
-        <v>2387241000160</v>
+        <v>749</v>
+      </c>
+      <c r="C439" s="1">
+        <v>61585865000151</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B440" t="s">
-        <v>753</v>
-      </c>
-      <c r="C440">
-        <v>33453598000123</v>
+        <v>751</v>
+      </c>
+      <c r="C440" s="1">
+        <v>2387241000160</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B441" t="s">
-        <v>755</v>
-      </c>
-      <c r="C441">
-        <v>92791243000103</v>
+        <v>753</v>
+      </c>
+      <c r="C441" s="1">
+        <v>33453598000123</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B442" t="s">
-        <v>757</v>
-      </c>
-      <c r="C442">
-        <v>89086144000116</v>
+        <v>755</v>
+      </c>
+      <c r="C442" s="1">
+        <v>92791243000103</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B443" t="s">
         <v>757</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="1">
         <v>89086144000116</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B444" t="s">
-        <v>760</v>
-      </c>
-      <c r="C444">
-        <v>59981829000165</v>
+        <v>757</v>
+      </c>
+      <c r="C444" s="1">
+        <v>89086144000116</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B445" t="s">
-        <v>762</v>
-      </c>
-      <c r="C445">
-        <v>91333666000117</v>
+        <v>760</v>
+      </c>
+      <c r="C445" s="1">
+        <v>59981829000165</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B446" t="s">
         <v>762</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="1">
         <v>91333666000117</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B447" t="s">
-        <v>765</v>
-      </c>
-      <c r="C447">
-        <v>67010660000124</v>
+        <v>762</v>
+      </c>
+      <c r="C447" s="1">
+        <v>91333666000117</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B448" t="s">
-        <v>767</v>
-      </c>
-      <c r="C448">
-        <v>6047087000139</v>
+        <v>765</v>
+      </c>
+      <c r="C448" s="1">
+        <v>67010660000124</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B449" t="s">
-        <v>769</v>
-      </c>
-      <c r="C449">
-        <v>3342704000130</v>
+        <v>767</v>
+      </c>
+      <c r="C449" s="1">
+        <v>6047087000139</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B450" t="s">
-        <v>771</v>
-      </c>
-      <c r="C450">
-        <v>61584140000149</v>
+        <v>769</v>
+      </c>
+      <c r="C450" s="1">
+        <v>3342704000130</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B451" t="s">
-        <v>773</v>
-      </c>
-      <c r="C451">
-        <v>16670085000155</v>
+        <v>771</v>
+      </c>
+      <c r="C451" s="1">
+        <v>61584140000149</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B452" t="s">
-        <v>775</v>
-      </c>
-      <c r="C452">
-        <v>8534605000174</v>
+        <v>773</v>
+      </c>
+      <c r="C452" s="1">
+        <v>16670085000155</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B453" t="s">
         <v>775</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="1">
         <v>8534605000174</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B454" t="s">
         <v>775</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="1">
         <v>8534605000174</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B455" t="s">
-        <v>779</v>
-      </c>
-      <c r="C455">
-        <v>56720428000163</v>
+        <v>775</v>
+      </c>
+      <c r="C455" s="1">
+        <v>8534605000174</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B456" t="s">
-        <v>781</v>
-      </c>
-      <c r="C456">
-        <v>17167396000169</v>
+        <v>779</v>
+      </c>
+      <c r="C456" s="1">
+        <v>56720428000163</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B457" t="s">
         <v>781</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="1">
         <v>17167396000169</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B458" t="s">
         <v>781</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="1">
         <v>17167396000169</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B459" t="s">
-        <v>785</v>
-      </c>
-      <c r="C459">
-        <v>33412081000196</v>
+        <v>781</v>
+      </c>
+      <c r="C459" s="1">
+        <v>17167396000169</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B460" t="s">
-        <v>787</v>
-      </c>
-      <c r="C460">
-        <v>12091809000155</v>
+        <v>785</v>
+      </c>
+      <c r="C460" s="1">
+        <v>33412081000196</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B461" t="s">
-        <v>789</v>
-      </c>
-      <c r="C461">
-        <v>61065751000180</v>
+        <v>787</v>
+      </c>
+      <c r="C461" s="1">
+        <v>12091809000155</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B462" t="s">
-        <v>791</v>
-      </c>
-      <c r="C462">
-        <v>85778074000106</v>
+        <v>789</v>
+      </c>
+      <c r="C462" s="1">
+        <v>61065751000180</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B463" t="s">
         <v>791</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="1">
         <v>85778074000106</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B464" t="s">
-        <v>794</v>
-      </c>
-      <c r="C464">
-        <v>90400888000142</v>
+        <v>791</v>
+      </c>
+      <c r="C464" s="1">
+        <v>85778074000106</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B465" t="s">
         <v>794</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="1">
         <v>90400888000142</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B466" t="s">
         <v>794</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="1">
         <v>90400888000142</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B467" t="s">
         <v>794</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="1">
         <v>90400888000142</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B468" t="s">
-        <v>799</v>
-      </c>
-      <c r="C468">
-        <v>76484013000145</v>
+        <v>794</v>
+      </c>
+      <c r="C468" s="1">
+        <v>90400888000142</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B469" t="s">
         <v>799</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="1">
         <v>76484013000145</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B470" t="s">
         <v>799</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="1">
         <v>76484013000145</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B471" t="s">
-        <v>803</v>
-      </c>
-      <c r="C471">
-        <v>13217485000111</v>
+        <v>799</v>
+      </c>
+      <c r="C471" s="1">
+        <v>76484013000145</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B472" t="s">
-        <v>805</v>
-      </c>
-      <c r="C472">
-        <v>43776517000180</v>
+        <v>803</v>
+      </c>
+      <c r="C472" s="1">
+        <v>13217485000111</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B473" t="s">
-        <v>807</v>
-      </c>
-      <c r="C473">
-        <v>29780061000109</v>
+        <v>805</v>
+      </c>
+      <c r="C473" s="1">
+        <v>43776517000180</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B474" t="s">
-        <v>809</v>
-      </c>
-      <c r="C474">
-        <v>4986320000113</v>
+        <v>807</v>
+      </c>
+      <c r="C474" s="1">
+        <v>29780061000109</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B475" t="s">
-        <v>811</v>
-      </c>
-      <c r="C475">
-        <v>1599101000193</v>
+        <v>809</v>
+      </c>
+      <c r="C475" s="1">
+        <v>4986320000113</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B476" t="s">
-        <v>813</v>
-      </c>
-      <c r="C476">
-        <v>7718269000157</v>
+        <v>811</v>
+      </c>
+      <c r="C476" s="1">
+        <v>1599101000193</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B477" t="s">
-        <v>815</v>
-      </c>
-      <c r="C477">
-        <v>2860694000162</v>
+        <v>813</v>
+      </c>
+      <c r="C477" s="1">
+        <v>7718269000157</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B478" t="s">
-        <v>817</v>
-      </c>
-      <c r="C478">
-        <v>84693183000168</v>
+        <v>815</v>
+      </c>
+      <c r="C478" s="1">
+        <v>2860694000162</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B479" t="s">
         <v>817</v>
       </c>
-      <c r="C479">
+      <c r="C479" s="1">
         <v>84693183000168</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B480" t="s">
-        <v>820</v>
-      </c>
-      <c r="C480">
-        <v>7415333000120</v>
+        <v>817</v>
+      </c>
+      <c r="C480" s="1">
+        <v>84693183000168</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B481" t="s">
-        <v>822</v>
-      </c>
-      <c r="C481">
-        <v>89096457000155</v>
+        <v>820</v>
+      </c>
+      <c r="C481" s="1">
+        <v>7415333000120</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B482" t="s">
-        <v>824</v>
-      </c>
-      <c r="C482">
-        <v>60500139000126</v>
+        <v>822</v>
+      </c>
+      <c r="C482" s="1">
+        <v>89096457000155</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B483" t="s">
         <v>824</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="1">
         <v>60500139000126</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B484" t="s">
-        <v>827</v>
-      </c>
-      <c r="C484">
-        <v>7594978000178</v>
+        <v>824</v>
+      </c>
+      <c r="C484" s="1">
+        <v>60500139000126</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B485" t="s">
-        <v>829</v>
-      </c>
-      <c r="C485">
-        <v>51466860000156</v>
+        <v>827</v>
+      </c>
+      <c r="C485" s="1">
+        <v>7594978000178</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B486" t="s">
-        <v>831</v>
-      </c>
-      <c r="C486">
-        <v>14807945000124</v>
+        <v>829</v>
+      </c>
+      <c r="C486" s="1">
+        <v>51466860000156</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B487" t="s">
         <v>831</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="1">
         <v>14807945000124</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B488" t="s">
         <v>831</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="1">
         <v>14807945000124</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B489" t="s">
-        <v>835</v>
-      </c>
-      <c r="C489">
-        <v>10807374000177</v>
+        <v>831</v>
+      </c>
+      <c r="C489" s="1">
+        <v>14807945000124</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B490" t="s">
-        <v>837</v>
-      </c>
-      <c r="C490">
-        <v>10285590000108</v>
+        <v>835</v>
+      </c>
+      <c r="C490" s="1">
+        <v>10807374000177</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B491" t="s">
-        <v>839</v>
-      </c>
-      <c r="C491">
-        <v>33386210000119</v>
+        <v>837</v>
+      </c>
+      <c r="C491" s="1">
+        <v>10285590000108</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B492" t="s">
         <v>839</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="1">
         <v>33386210000119</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B493" t="s">
         <v>839</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="1">
         <v>33386210000119</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B494" t="s">
-        <v>843</v>
-      </c>
-      <c r="C494">
-        <v>4065791000199</v>
+        <v>839</v>
+      </c>
+      <c r="C494" s="1">
+        <v>33386210000119</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B495" t="s">
-        <v>845</v>
-      </c>
-      <c r="C495">
-        <v>2762121000104</v>
+        <v>843</v>
+      </c>
+      <c r="C495" s="1">
+        <v>4065791000199</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B496" t="s">
-        <v>847</v>
-      </c>
-      <c r="C496">
-        <v>622416000141</v>
+        <v>845</v>
+      </c>
+      <c r="C496" s="1">
+        <v>2762121000104</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B497" t="s">
-        <v>849</v>
-      </c>
-      <c r="C497">
-        <v>16404287000155</v>
+        <v>847</v>
+      </c>
+      <c r="C497" s="1">
+        <v>622416000141</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B498" t="s">
-        <v>851</v>
-      </c>
-      <c r="C498">
-        <v>8801621000186</v>
+        <v>849</v>
+      </c>
+      <c r="C498" s="1">
+        <v>16404287000155</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B499" t="s">
-        <v>853</v>
-      </c>
-      <c r="C499">
-        <v>7859971000130</v>
+        <v>851</v>
+      </c>
+      <c r="C499" s="1">
+        <v>8801621000186</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B500" t="s">
         <v>853</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="1">
         <v>7859971000130</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B501" t="s">
         <v>853</v>
       </c>
-      <c r="C501">
+      <c r="C501" s="1">
         <v>7859971000130</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B502" t="s">
-        <v>857</v>
-      </c>
-      <c r="C502">
-        <v>92781335000102</v>
+        <v>853</v>
+      </c>
+      <c r="C502" s="1">
+        <v>7859971000130</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B503" t="s">
         <v>857</v>
       </c>
-      <c r="C503">
+      <c r="C503" s="1">
         <v>92781335000102</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B504" t="s">
-        <v>860</v>
-      </c>
-      <c r="C504">
-        <v>33111246000190</v>
+        <v>857</v>
+      </c>
+      <c r="C504" s="1">
+        <v>92781335000102</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B505" t="s">
         <v>860</v>
       </c>
-      <c r="C505">
+      <c r="C505" s="1">
         <v>33111246000190</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B506" t="s">
-        <v>863</v>
-      </c>
-      <c r="C506">
-        <v>8065557000112</v>
+        <v>860</v>
+      </c>
+      <c r="C506" s="1">
+        <v>33111246000190</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B507" t="s">
-        <v>865</v>
-      </c>
-      <c r="C507">
-        <v>9295063000197</v>
+        <v>863</v>
+      </c>
+      <c r="C507" s="1">
+        <v>8065557000112</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B508" t="s">
-        <v>867</v>
-      </c>
-      <c r="C508">
-        <v>30213493000109</v>
+        <v>865</v>
+      </c>
+      <c r="C508" s="1">
+        <v>9295063000197</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B509" t="s">
-        <v>869</v>
-      </c>
-      <c r="C509">
-        <v>82636986000155</v>
+        <v>867</v>
+      </c>
+      <c r="C509" s="1">
+        <v>30213493000109</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B510" t="s">
         <v>869</v>
       </c>
-      <c r="C510">
+      <c r="C510" s="1">
         <v>82636986000155</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B511" t="s">
-        <v>872</v>
-      </c>
-      <c r="C511">
-        <v>336701000104</v>
+        <v>869</v>
+      </c>
+      <c r="C511" s="1">
+        <v>82636986000155</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B512" t="s">
         <v>872</v>
       </c>
-      <c r="C512">
+      <c r="C512" s="1">
         <v>336701000104</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B513" t="s">
-        <v>875</v>
-      </c>
-      <c r="C513">
-        <v>71476527000135</v>
+        <v>872</v>
+      </c>
+      <c r="C513" s="1">
+        <v>336701000104</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B514" t="s">
-        <v>877</v>
-      </c>
-      <c r="C514">
-        <v>59418806000147</v>
+        <v>875</v>
+      </c>
+      <c r="C514" s="1">
+        <v>71476527000135</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B515" t="s">
-        <v>879</v>
-      </c>
-      <c r="C515">
-        <v>2351144000118</v>
+        <v>877</v>
+      </c>
+      <c r="C515" s="1">
+        <v>59418806000147</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B516" t="s">
-        <v>881</v>
-      </c>
-      <c r="C516">
-        <v>2421421000111</v>
+        <v>879</v>
+      </c>
+      <c r="C516" s="1">
+        <v>2351144000118</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B517" t="s">
-        <v>883</v>
-      </c>
-      <c r="C517">
-        <v>33467572000134</v>
+        <v>881</v>
+      </c>
+      <c r="C517" s="1">
+        <v>2421421000111</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B518" t="s">
         <v>883</v>
       </c>
-      <c r="C518">
+      <c r="C518" s="1">
         <v>33467572000134</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B519" t="s">
-        <v>886</v>
-      </c>
-      <c r="C519">
-        <v>53113791000122</v>
+        <v>883</v>
+      </c>
+      <c r="C519" s="1">
+        <v>33467572000134</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B520" t="s">
-        <v>888</v>
-      </c>
-      <c r="C520">
-        <v>3014553000191</v>
+        <v>886</v>
+      </c>
+      <c r="C520" s="1">
+        <v>53113791000122</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B521" t="s">
-        <v>890</v>
-      </c>
-      <c r="C521">
-        <v>26345998000150</v>
+        <v>888</v>
+      </c>
+      <c r="C521" s="1">
+        <v>3014553000191</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B522" t="s">
-        <v>892</v>
-      </c>
-      <c r="C522">
-        <v>8811643000127</v>
+        <v>890</v>
+      </c>
+      <c r="C522" s="1">
+        <v>26345998000150</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B523" t="s">
-        <v>894</v>
-      </c>
-      <c r="C523">
-        <v>2998611000104</v>
+        <v>892</v>
+      </c>
+      <c r="C523" s="1">
+        <v>8811643000127</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B524" t="s">
         <v>894</v>
       </c>
-      <c r="C524">
+      <c r="C524" s="1">
         <v>2998611000104</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B525" t="s">
-        <v>897</v>
-      </c>
-      <c r="C525">
-        <v>94813102000170</v>
+        <v>894</v>
+      </c>
+      <c r="C525" s="1">
+        <v>2998611000104</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B526" t="s">
-        <v>899</v>
-      </c>
-      <c r="C526">
-        <v>84683374000149</v>
+        <v>897</v>
+      </c>
+      <c r="C526" s="1">
+        <v>94813102000170</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B527" t="s">
-        <v>901</v>
-      </c>
-      <c r="C527">
-        <v>82982075000180</v>
+        <v>899</v>
+      </c>
+      <c r="C527" s="1">
+        <v>84683374000149</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B528" t="s">
         <v>901</v>
       </c>
-      <c r="C528">
+      <c r="C528" s="1">
         <v>82982075000180</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B529" t="s">
-        <v>904</v>
-      </c>
-      <c r="C529">
-        <v>90441460000148</v>
+        <v>901</v>
+      </c>
+      <c r="C529" s="1">
+        <v>82982075000180</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B530" t="s">
-        <v>906</v>
-      </c>
-      <c r="C530">
-        <v>33256439000139</v>
+        <v>904</v>
+      </c>
+      <c r="C530" s="1">
+        <v>90441460000148</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B531" t="s">
-        <v>908</v>
-      </c>
-      <c r="C531">
-        <v>33958695000178</v>
+        <v>906</v>
+      </c>
+      <c r="C531" s="1">
+        <v>33256439000139</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B532" t="s">
         <v>908</v>
       </c>
-      <c r="C532">
+      <c r="C532" s="1">
         <v>33958695000178</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B533" t="s">
         <v>908</v>
       </c>
-      <c r="C533">
+      <c r="C533" s="1">
         <v>33958695000178</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B534" t="s">
-        <v>912</v>
-      </c>
-      <c r="C534">
-        <v>2162616000194</v>
+        <v>908</v>
+      </c>
+      <c r="C534" s="1">
+        <v>33958695000178</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B535" t="s">
-        <v>914</v>
-      </c>
-      <c r="C535">
-        <v>60894730000105</v>
+        <v>912</v>
+      </c>
+      <c r="C535" s="1">
+        <v>2162616000194</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B536" t="s">
         <v>914</v>
       </c>
-      <c r="C536">
+      <c r="C536" s="1">
         <v>60894730000105</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B537" t="s">
         <v>914</v>
       </c>
-      <c r="C537">
+      <c r="C537" s="1">
         <v>60894730000105</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B538" t="s">
-        <v>918</v>
-      </c>
-      <c r="C538">
-        <v>33592510000154</v>
+        <v>914</v>
+      </c>
+      <c r="C538" s="1">
+        <v>60894730000105</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B539" t="s">
-        <v>920</v>
-      </c>
-      <c r="C539">
-        <v>23373000000132</v>
+        <v>918</v>
+      </c>
+      <c r="C539" s="1">
+        <v>33592510000154</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B540" t="s">
-        <v>922</v>
-      </c>
-      <c r="C540">
-        <v>34274233000102</v>
+        <v>920</v>
+      </c>
+      <c r="C540" s="1">
+        <v>23373000000132</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B541" t="s">
-        <v>924</v>
-      </c>
-      <c r="C541">
-        <v>33041260065290</v>
+        <v>922</v>
+      </c>
+      <c r="C541" s="1">
+        <v>34274233000102</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B542" t="s">
-        <v>926</v>
-      </c>
-      <c r="C542">
-        <v>45365558000109</v>
+        <v>924</v>
+      </c>
+      <c r="C542" s="1">
+        <v>33041260065290</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B543" t="s">
-        <v>928</v>
-      </c>
-      <c r="C543">
-        <v>33839910000111</v>
+        <v>926</v>
+      </c>
+      <c r="C543" s="1">
+        <v>45365558000109</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B544" t="s">
-        <v>930</v>
-      </c>
-      <c r="C544">
-        <v>67571414000141</v>
+        <v>928</v>
+      </c>
+      <c r="C544" s="1">
+        <v>33839910000111</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B545" t="s">
-        <v>932</v>
-      </c>
-      <c r="C545">
-        <v>2558157000162</v>
+        <v>930</v>
+      </c>
+      <c r="C545" s="1">
+        <v>67571414000141</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B546" t="s">
-        <v>934</v>
-      </c>
-      <c r="C546">
-        <v>33113309000147</v>
+        <v>932</v>
+      </c>
+      <c r="C546" s="1">
+        <v>2558157000162</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B547" t="s">
-        <v>936</v>
-      </c>
-      <c r="C547">
-        <v>49669856000143</v>
+        <v>934</v>
+      </c>
+      <c r="C547" s="1">
+        <v>33113309000147</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B548" t="s">
-        <v>938</v>
-      </c>
-      <c r="C548">
-        <v>50926955000142</v>
+        <v>936</v>
+      </c>
+      <c r="C548" s="1">
+        <v>49669856000143</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B549" t="s">
-        <v>940</v>
-      </c>
-      <c r="C549">
-        <v>12420164000157</v>
+        <v>938</v>
+      </c>
+      <c r="C549" s="1">
+        <v>50926955000142</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B550" t="s">
-        <v>942</v>
-      </c>
-      <c r="C550">
-        <v>84429695000111</v>
+        <v>940</v>
+      </c>
+      <c r="C550" s="1">
+        <v>12420164000157</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B551" t="s">
-        <v>944</v>
-      </c>
-      <c r="C551">
-        <v>14776142000150</v>
+        <v>942</v>
+      </c>
+      <c r="C551" s="1">
+        <v>84429695000111</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B552" t="s">
-        <v>946</v>
-      </c>
-      <c r="C552">
-        <v>59105999000186</v>
+        <v>944</v>
+      </c>
+      <c r="C552" s="1">
+        <v>14776142000150</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B553" t="s">
         <v>946</v>
       </c>
-      <c r="C553">
+      <c r="C553" s="1">
         <v>59105999000186</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B554" t="s">
-        <v>949</v>
-      </c>
-      <c r="C554">
-        <v>42278473000103</v>
+        <v>946</v>
+      </c>
+      <c r="C554" s="1">
+        <v>59105999000186</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B555" t="s">
-        <v>951</v>
-      </c>
-      <c r="C555">
-        <v>33228024000151</v>
+        <v>949</v>
+      </c>
+      <c r="C555" s="1">
+        <v>42278473000103</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B556" t="s">
         <v>951</v>
       </c>
-      <c r="C556">
+      <c r="C556" s="1">
         <v>33228024000151</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B557" t="s">
-        <v>954</v>
-      </c>
-      <c r="C557">
-        <v>2217319000107</v>
+        <v>951</v>
+      </c>
+      <c r="C557" s="1">
+        <v>33228024000151</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B558" t="s">
-        <v>956</v>
-      </c>
-      <c r="C558">
-        <v>8807432000110</v>
+        <v>954</v>
+      </c>
+      <c r="C558" s="1">
+        <v>2217319000107</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
+        <v>955</v>
+      </c>
+      <c r="B559" t="s">
+        <v>956</v>
+      </c>
+      <c r="C559" s="1">
+        <v>8807432000110</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
         <v>957</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B560" t="s">
         <v>958</v>
       </c>
-      <c r="C559">
+      <c r="C560" s="1">
         <v>13574594000196</v>
       </c>
     </row>
